--- a/filedrop/10748_filedrop.xlsx
+++ b/filedrop/10748_filedrop.xlsx
@@ -407,7 +407,7 @@
         <v>10748</v>
       </c>
       <c r="B1" t="str">
-        <v>2023-02-10</v>
+        <v>2023-02-01</v>
       </c>
       <c r="C1" t="str">
         <v>02</v>
@@ -428,7 +428,7 @@
         <v>12444</v>
       </c>
       <c r="I1" t="str">
-        <v>2O</v>
+        <v>2N</v>
       </c>
       <c r="J1" t="str">
         <v>01</v>
@@ -498,7 +498,7 @@
         <v>984539843598</v>
       </c>
       <c r="AG1" t="str">
-        <v>234344</v>
+        <v>656456456</v>
       </c>
       <c r="AH1" t="str">
         <v>father</v>
